--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\IdeaProjects\elderberry-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3A0EF-08DB-4334-9A98-96F2FA25F5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEC756A-196C-4FCC-ACC7-6DFCA51B4681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2FB9CC1B-55EA-4AB0-A71D-09585E9EFDF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB9CC1B-55EA-4AB0-A71D-09585E9EFDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
-    <sheet name="Recipe" sheetId="2" r:id="rId2"/>
-    <sheet name="Units" sheetId="4" r:id="rId3"/>
+    <sheet name="Ingredients" sheetId="5" r:id="rId2"/>
+    <sheet name="Recipe" sheetId="2" r:id="rId3"/>
+    <sheet name="Units" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,20 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>amount</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
     <t>Syrup12</t>
   </si>
   <si>
@@ -95,9 +90,6 @@
     <t>backet</t>
   </si>
   <si>
-    <t>Ing-name</t>
-  </si>
-  <si>
     <t>pic</t>
   </si>
   <si>
@@ -126,6 +118,9 @@
   </si>
   <si>
     <t>P-Name</t>
+  </si>
+  <si>
+    <t>I-name</t>
   </si>
 </sst>
 </file>
@@ -157,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,14 +175,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6FD1A-161B-4F93-974F-1B4D5B2BD463}">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,49 +519,39 @@
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
@@ -569,36 +564,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -607,6 +602,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401A3208-053C-4B67-95A5-2E0AE8F14767}">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D420E07-FDA5-4EC0-A51C-98BED7948BE3}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -618,10 +679,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -632,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -643,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -654,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -665,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -677,11 +738,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C1336C-636B-4C1B-800C-5051A289F73E}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -693,50 +754,50 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\IdeaProjects\elderberry-inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\IdeaProjects\Project\elderberry-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEC756A-196C-4FCC-ACC7-6DFCA51B4681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CEE2E2-F6F2-41F8-A05B-7F8E0ECF877A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB9CC1B-55EA-4AB0-A71D-09585E9EFDF3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>amount</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>backet</t>
-  </si>
-  <si>
-    <t>pic</t>
   </si>
   <si>
     <t>N-have</t>
@@ -188,12 +185,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6FD1A-161B-4F93-974F-1B4D5B2BD463}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,26 +524,25 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -559,17 +557,19 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -613,16 +613,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -669,15 +669,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D420E07-FDA5-4EC0-A51C-98BED7948BE3}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -698,8 +704,11 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -709,8 +718,9 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -720,8 +730,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -731,6 +742,7 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
